--- a/medicine/Handicap/Fédération_québécoise_de_l'autisme/Fédération_québécoise_de_l'autisme.xlsx
+++ b/medicine/Handicap/Fédération_québécoise_de_l'autisme/Fédération_québécoise_de_l'autisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_qu%C3%A9b%C3%A9coise_de_l%27autisme</t>
+          <t>Fédération_québécoise_de_l'autisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fédération québécoise de l’autisme (FQA) est un regroupement provincial d’organismes et de personnes qui ont en commun les intérêts de la personne autiste, ceux de sa famille et de ses proches. Depuis 40 ans, la FQA est la référence en autisme au Québec[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération québécoise de l’autisme (FQA) est un regroupement provincial d’organismes et de personnes qui ont en commun les intérêts de la personne autiste, ceux de sa famille et de ses proches. Depuis 40 ans, la FQA est la référence en autisme au Québec.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_qu%C3%A9b%C3%A9coise_de_l%27autisme</t>
+          <t>Fédération_québécoise_de_l'autisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été créée le 12 février 1976 par un groupe de parents d'enfants autistes, sous le nom de Société québécoise pour enfants autistiques, en réaction à la ségrégation scolaire dont étaient victimes les élèves autistes à l'époque[2]. Le nom change pour « Société québécoise de l’autisme » en 1983, puis la « Fédération québécoise de l’autisme et des autres troubles envahissants du développement » en 2001. Son objectif est d'obtenir l’intégration sociale des personnes autistes en luttant contre la discrimination[3]. L’année 2011 marque un nouveau changement de nom pour la Fédération qui devient la Fédération québécoise de l’autisme, et accompagne ainsi l’actuel consensus international qui regroupe l’ensemble des troubles envahissants du développement sous le terme unique de « trouble du spectre de l’autisme » avec la publication du DSM-V.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été créée le 12 février 1976 par un groupe de parents d'enfants autistes, sous le nom de Société québécoise pour enfants autistiques, en réaction à la ségrégation scolaire dont étaient victimes les élèves autistes à l'époque. Le nom change pour « Société québécoise de l’autisme » en 1983, puis la « Fédération québécoise de l’autisme et des autres troubles envahissants du développement » en 2001. Son objectif est d'obtenir l’intégration sociale des personnes autistes en luttant contre la discrimination. L’année 2011 marque un nouveau changement de nom pour la Fédération qui devient la Fédération québécoise de l’autisme, et accompagne ainsi l’actuel consensus international qui regroupe l’ensemble des troubles envahissants du développement sous le terme unique de « trouble du spectre de l’autisme » avec la publication du DSM-V.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_qu%C3%A9b%C3%A9coise_de_l%27autisme</t>
+          <t>Fédération_québécoise_de_l'autisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La mission de la FQA est la suivante : « Mobiliser tous les acteurs concernés afin de promouvoir le bien-être des personnes, sensibiliser et informer la population sur le trouble du spectre de l’autisme (TSA) ainsi que sur la situation des familles, et contribuer au développement des connaissances et à leur diffusion ». Par cet énoncé, la Fédération affirme qu’elle entend poser tout geste ou action afin d’apporter un réel soutien aux acteurs concernés. Cet apport passe par la mise en place de stratégies permettant à ces acteurs de se mobiliser et se rassembler autour d’objectifs communs.
 Les activités de la FQA incluent :
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_qu%C3%A9b%C3%A9coise_de_l%27autisme</t>
+          <t>Fédération_québécoise_de_l'autisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette fédération est à l'origine de nombreuses publications : 
 Judiciarisation : Guide pour les autistes au pays des neurotypiques (2018).
